--- a/31_ユースケース記述テスト仕様書.xlsx
+++ b/31_ユースケース記述テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_takemura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DD03D424-9748-452C-B94D-426BC5A44118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A3D8B8-1442-4614-9517-C2C2E0E96908}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B2D795-2B66-4C5D-94CC-9EB1BF43BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -80,7 +80,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹村孔</t>
+    <t>増子</t>
+    <rPh sb="0" eb="2">
+      <t>マシコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No</t>
@@ -232,23 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正常に動く</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒木</t>
-    <rPh sb="0" eb="2">
-      <t>アラキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力が正しくない場合</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -289,17 +276,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IDの入力欄に入力されたIDを初期値としてセットする</t>
-  </si>
-  <si>
-    <t>正常に動く</t>
-  </si>
-  <si>
-    <t>荒木</t>
   </si>
   <si>
     <t>「IDまたはパスワードが確認できませんでした」のメッセージを表示する</t>
@@ -326,9 +303,6 @@
     <t>未入力フィールドに「このフィールドを入力してください」とメッセージを表示する</t>
   </si>
   <si>
-    <t>竹村</t>
-  </si>
-  <si>
     <t>ログアウトする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -670,13 +644,6 @@
     <t>「学生番号が重複しています」とメッセージを表示する</t>
   </si>
   <si>
-    <t>竹村</t>
-    <rPh sb="0" eb="2">
-      <t>タケムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生の情報を変更する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,10 +655,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正常に動く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No9と同テスト</t>
     <rPh sb="4" eb="5">
       <t>ドウ</t>
@@ -771,13 +734,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>峰松</t>
-    <rPh sb="0" eb="2">
-      <t>ミネマツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1142,10 +1098,6 @@
     <t>「このフィールドを入力して下さい」とメッセージを表示する</t>
   </si>
   <si>
-    <t>竹村</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>‐</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1807,10 +1759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>荒木</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No64と同テスト</t>
     <rPh sb="5" eb="6">
       <t>ドウ</t>
@@ -2404,6 +2352,62 @@
     <rPh sb="0" eb="2">
       <t>コウバン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常に動く</t>
+  </si>
+  <si>
+    <t>正常に動く</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常に動く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒木</t>
+  </si>
+  <si>
+    <t>荒木</t>
+    <rPh sb="0" eb="2">
+      <t>アラキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹村</t>
+  </si>
+  <si>
+    <t>竹村</t>
+    <rPh sb="0" eb="2">
+      <t>タケムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹村</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>峰松</t>
+    <rPh sb="0" eb="2">
+      <t>ミネマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒木</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2414,7 +2418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2810,7 +2814,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2934,9 +2938,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,6 +2982,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3268,72 +3275,72 @@
   </sheetPr>
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="C91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.36328125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="48">
-        <v>45427</v>
-      </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="I1" s="47">
+        <v>45271</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:16" ht="12.6" thickTop="1"/>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.95">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -3374,7 +3381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="39">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
         <v>1</v>
       </c>
@@ -3397,19 +3404,19 @@
         <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="41">
+      <c r="J5" s="57">
         <v>45421</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <f>MAX($A$5:A5)+1</f>
         <v>2</v>
@@ -3418,19 +3425,19 @@
       <c r="C6" s="24"/>
       <c r="D6" s="21"/>
       <c r="E6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="41">
+      <c r="J6" s="56">
         <v>45421</v>
       </c>
       <c r="K6" s="5"/>
@@ -3438,7 +3445,7 @@
       <c r="M6" s="5"/>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <f>MAX($A$5:A6)+1</f>
         <v>3</v>
@@ -3449,23 +3456,23 @@
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="41">
+      <c r="J7" s="57">
         <v>45421</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <f>MAX($A$5:A7)+1</f>
         <v>4</v>
@@ -3476,20 +3483,20 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="41">
+      <c r="J8" s="57">
         <v>45421</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <f>MAX($A$5:A8)+1</f>
         <v>5</v>
@@ -3497,27 +3504,27 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="41">
+      <c r="J9" s="57">
         <v>45421</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <f>MAX($A$5:A9)+1</f>
         <v>6</v>
@@ -3528,86 +3535,86 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="41">
+      <c r="J10" s="57">
         <v>45421</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <f>MAX($A$5:A10)+1</f>
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="41">
+      <c r="J11" s="57">
         <v>45421</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <f>MAX($A$5:A11)+1</f>
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="41">
+      <c r="J12" s="57">
         <v>45421</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <f>MAX($A$5:A12)+1</f>
         <v>9</v>
@@ -3618,86 +3625,86 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="41">
+      <c r="J13" s="57">
         <v>45421</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="26.1">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <f>MAX($A$5:A13)+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="41">
+      <c r="J14" s="57">
         <v>45421</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="39">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <f>MAX($A$5:A14)+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="41">
+      <c r="J15" s="56">
         <v>45421</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="12.95">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <f>MAX($A$5:A15)+1</f>
         <v>12</v>
@@ -3708,20 +3715,20 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="41">
+      <c r="J16" s="57">
         <v>45421</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <f>MAX($A$5:A16)+1</f>
         <v>13</v>
@@ -3730,28 +3737,28 @@
       <c r="C17" s="34"/>
       <c r="D17" s="21"/>
       <c r="E17" s="33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="41">
+      <c r="J17" s="57">
         <v>45421</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <f>MAX($A$5:A17)+1</f>
         <v>14</v>
@@ -3762,22 +3769,22 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="41">
+      <c r="J18" s="57">
         <v>45421</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <f>MAX($A$5:A18)+1</f>
         <v>15</v>
@@ -3786,28 +3793,28 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="41">
+      <c r="J19" s="57">
         <v>45421</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A20" s="28">
         <f>MAX($A$5:A19)+1</f>
         <v>16</v>
@@ -3818,20 +3825,20 @@
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="41">
+      <c r="J20" s="57">
         <v>45421</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <f>MAX($A$5:A20)+1</f>
         <v>17</v>
@@ -3842,20 +3849,20 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="41">
+      <c r="J21" s="57">
         <v>45421</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <f>MAX($A$5:A21)+1</f>
         <v>18</v>
@@ -3864,28 +3871,28 @@
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="41">
+      <c r="J22" s="57">
         <v>45421</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <f>MAX($A$5:A22)+1</f>
         <v>19</v>
@@ -3896,56 +3903,56 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="41">
+      <c r="J23" s="57">
         <v>45421</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <f>MAX($A$5:A23)+1</f>
         <v>20</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="41">
+      <c r="J24" s="56">
         <v>45421</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="26.1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <f>MAX($A$5:A24)+1</f>
         <v>21</v>
@@ -3956,54 +3963,54 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="41">
+      <c r="J25" s="57">
         <v>45421</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28">
         <f>MAX($A$5:A25)+1</f>
         <v>22</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="41">
+      <c r="J26" s="57">
         <v>45421</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="28">
         <f>MAX($A$5:A26)+1</f>
         <v>23</v>
@@ -4014,54 +4021,54 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="41">
+      <c r="J27" s="57">
         <v>45421</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" s="28">
         <f>MAX($A$5:A27)+1</f>
         <v>24</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="41">
+      <c r="J28" s="56">
         <v>45421</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <f>MAX($A$5:A28)+1</f>
         <v>25</v>
@@ -4072,28 +4079,28 @@
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="41">
+      <c r="J29" s="56">
         <v>45421</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <f>MAX($A$5:A29)+1</f>
         <v>26</v>
@@ -4102,28 +4109,28 @@
       <c r="C30" s="21"/>
       <c r="D30" s="38"/>
       <c r="E30" s="27" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="41">
+      <c r="J30" s="57">
         <v>45421</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <f>MAX($A$5:A30)+1</f>
         <v>27</v>
@@ -4134,20 +4141,20 @@
       <c r="E31" s="22"/>
       <c r="F31" s="20"/>
       <c r="G31" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="41">
+      <c r="J31" s="57">
         <v>45421</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <f>MAX($A$5:A31)+1</f>
         <v>28</v>
@@ -4156,28 +4163,28 @@
       <c r="C32" s="21"/>
       <c r="D32" s="38"/>
       <c r="E32" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="41">
+      <c r="J32" s="57">
         <v>45421</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <f>MAX($A$5:A32)+1</f>
         <v>29</v>
@@ -4186,28 +4193,28 @@
       <c r="C33" s="21"/>
       <c r="D33" s="38"/>
       <c r="E33" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="41">
+      <c r="J33" s="57">
         <v>45421</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <f>MAX($A$5:A33)+1</f>
         <v>30</v>
@@ -4216,28 +4223,28 @@
       <c r="C34" s="21"/>
       <c r="D34" s="38"/>
       <c r="E34" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="41">
+      <c r="J34" s="57">
         <v>45421</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
         <f>MAX($A$5:A34)+1</f>
         <v>31</v>
@@ -4246,28 +4253,28 @@
       <c r="C35" s="21"/>
       <c r="D35" s="38"/>
       <c r="E35" s="27" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="41">
+      <c r="J35" s="57">
         <v>45421</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <f>MAX($A$5:A35)+1</f>
         <v>32</v>
@@ -4278,20 +4285,20 @@
       <c r="E36" s="22"/>
       <c r="F36" s="20"/>
       <c r="G36" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="41">
+      <c r="J36" s="57">
         <v>45421</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <f>MAX($A$5:A36)+1</f>
         <v>33</v>
@@ -4300,62 +4307,62 @@
       <c r="C37" s="22"/>
       <c r="D37" s="39"/>
       <c r="E37" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="41">
+      <c r="J37" s="57">
         <v>45421</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <f>MAX($A$5:A37)+1</f>
         <v>34</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="41">
+      <c r="J38" s="57">
         <v>45421</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
         <f>MAX($A$5:A38)+1</f>
         <v>35</v>
@@ -4366,22 +4373,22 @@
       <c r="E39" s="22"/>
       <c r="F39" s="20"/>
       <c r="G39" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="41">
+      <c r="J39" s="56">
         <v>45421</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="12.95">
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <f>MAX($A$5:A39)+1</f>
         <v>36</v>
@@ -4392,28 +4399,28 @@
         <v>21</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="41">
+      <c r="J40" s="57">
         <v>45421</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <f>MAX($A$5:A40)+1</f>
         <v>37</v>
@@ -4422,26 +4429,26 @@
       <c r="C41" s="34"/>
       <c r="D41" s="21"/>
       <c r="E41" s="27" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="41">
+      <c r="J41" s="57">
         <v>45421</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <f>MAX($A$5:A41)+1</f>
         <v>38</v>
@@ -4452,116 +4459,116 @@
       <c r="E42" s="22"/>
       <c r="F42" s="20"/>
       <c r="G42" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="41">
+      <c r="J42" s="56">
         <v>45421</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <f>MAX($A$5:A42)+1</f>
         <v>39</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="41">
+      <c r="J43" s="57">
         <v>45421</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <f>MAX($A$5:A43)+1</f>
         <v>40</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="41">
+      <c r="J44" s="57">
         <v>45421</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="45" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <f>MAX($A$5:A44)+1</f>
         <v>41</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="33" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="41">
+      <c r="J45" s="56">
         <v>45421</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="46" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <f>MAX($A$5:A45)+1</f>
         <v>42</v>
@@ -4572,22 +4579,22 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="41">
+      <c r="J46" s="57">
         <v>45421</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <f>MAX($A$5:A46)+1</f>
         <v>43</v>
@@ -4598,28 +4605,28 @@
         <v>21</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="41">
+      <c r="J47" s="57">
         <v>45421</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="48" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <f>MAX($A$5:A47)+1</f>
         <v>44</v>
@@ -4628,26 +4635,26 @@
       <c r="C48" s="34"/>
       <c r="D48" s="21"/>
       <c r="E48" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="41">
+      <c r="J48" s="57">
         <v>45421</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <f>MAX($A$5:A48)+1</f>
         <v>45</v>
@@ -4658,22 +4665,22 @@
       <c r="E49" s="22"/>
       <c r="F49" s="20"/>
       <c r="G49" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="41">
+      <c r="J49" s="57">
         <v>45421</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="50" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <f>MAX($A$5:A49)+1</f>
         <v>46</v>
@@ -4682,28 +4689,28 @@
       <c r="C50" s="34"/>
       <c r="D50" s="21"/>
       <c r="E50" s="27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="41">
+      <c r="J50" s="57">
         <v>45421</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="51" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <f>MAX($A$5:A50)+1</f>
         <v>47</v>
@@ -4714,82 +4721,82 @@
       <c r="E51" s="22"/>
       <c r="F51" s="20"/>
       <c r="G51" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="41">
+      <c r="J51" s="57">
         <v>45421</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="52" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <f>MAX($A$5:A51)+1</f>
         <v>48</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="41">
+      <c r="J52" s="57">
         <v>45421</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="53" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <f>MAX($A$5:A52)+1</f>
         <v>49</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="41">
+      <c r="J53" s="57">
         <v>45421</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <f>MAX($A$5:A53)+1</f>
         <v>50</v>
@@ -4800,52 +4807,52 @@
       <c r="E54" s="22"/>
       <c r="F54" s="20"/>
       <c r="G54" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="41">
+      <c r="J54" s="57">
         <v>45421</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="55" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <f>MAX($A$5:A54)+1</f>
         <v>51</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="33" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="41">
+      <c r="J55" s="57">
         <v>45421</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="56" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <f>MAX($A$5:A55)+1</f>
         <v>52</v>
@@ -4856,20 +4863,20 @@
       <c r="E56" s="22"/>
       <c r="F56" s="20"/>
       <c r="G56" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="41">
+      <c r="J56" s="57">
         <v>45421</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <f>MAX($A$5:A56)+1</f>
         <v>53</v>
@@ -4880,28 +4887,28 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I57" s="5"/>
-      <c r="J57" s="41">
+      <c r="J57" s="57">
         <v>45421</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="58" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <f>MAX($A$5:A57)+1</f>
         <v>54</v>
@@ -4910,26 +4917,26 @@
       <c r="C58" s="34"/>
       <c r="D58" s="21"/>
       <c r="E58" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="41">
+      <c r="J58" s="56">
         <v>45421</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28">
         <f>MAX($A$5:A58)+1</f>
         <v>55</v>
@@ -4940,114 +4947,114 @@
       <c r="E59" s="22"/>
       <c r="F59" s="20"/>
       <c r="G59" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I59" s="5"/>
-      <c r="J59" s="41">
+      <c r="J59" s="57">
         <v>45421</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="60" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <f>MAX($A$5:A59)+1</f>
         <v>56</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="41">
+      <c r="J60" s="57">
         <v>45421</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="61" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <f>MAX($A$5:A60)+1</f>
         <v>57</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="33" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="33" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="41">
+      <c r="J61" s="57">
         <v>45421</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28">
         <f>MAX($A$5:A61)+1</f>
         <v>58</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="27" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I62" s="5"/>
-      <c r="J62" s="41">
+      <c r="J62" s="57">
         <v>45421</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="28">
         <f>MAX($A$5:A62)+1</f>
         <v>59</v>
@@ -5057,25 +5064,25 @@
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="41">
+      <c r="J63" s="57">
         <v>45421</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="28">
         <f>MAX($A$5:A63)+1</f>
         <v>60</v>
@@ -5086,86 +5093,86 @@
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I64" s="5"/>
-      <c r="J64" s="41">
+      <c r="J64" s="56">
         <v>45421</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="65" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <f>MAX($A$5:A64)+1</f>
         <v>61</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="41">
+      <c r="J65" s="57">
         <v>45421</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="66" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <f>MAX($A$5:A65)+1</f>
         <v>62</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="33" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="7">
         <v>45427</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="67" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <f>MAX($A$5:A66)+1</f>
         <v>63</v>
@@ -5176,10 +5183,10 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="7">
@@ -5189,7 +5196,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="68" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <f>MAX($A$5:A67)+1</f>
         <v>64</v>
@@ -5200,50 +5207,50 @@
         <v>21</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="7">
         <v>45427</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="69" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A69" s="28">
         <f>MAX($A$5:A68)+1</f>
         <v>65</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="33" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="7">
@@ -5253,7 +5260,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="70" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <f>MAX($A$5:A69)+1</f>
         <v>66</v>
@@ -5264,10 +5271,10 @@
       <c r="E70" s="22"/>
       <c r="F70" s="20"/>
       <c r="G70" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="7">
@@ -5277,7 +5284,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="71" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <f>MAX($A$5:A70)+1</f>
         <v>67</v>
@@ -5286,16 +5293,16 @@
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="7">
@@ -5305,7 +5312,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28">
         <f>MAX($A$5:A71)+1</f>
         <v>68</v>
@@ -5316,76 +5323,76 @@
       <c r="E72" s="22"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="7">
         <v>45427</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="73" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="28">
         <f>MAX($A$5:A72)+1</f>
         <v>69</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="7">
         <v>45427</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" ht="39">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A74" s="28">
         <f>MAX($A$5:A73)+1</f>
         <v>70</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="33" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="7">
@@ -5394,10 +5401,10 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="3" customFormat="1" ht="26.1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <f>MAX($A$5:A74)+1</f>
         <v>71</v>
@@ -5408,10 +5415,10 @@
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="G75" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="7">
@@ -5420,10 +5427,10 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <f>MAX($A$5:A75)+1</f>
         <v>72</v>
@@ -5434,30 +5441,30 @@
         <v>21</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="7">
         <v>45427</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <f>MAX($A$5:A76)+1</f>
         <v>73</v>
@@ -5468,44 +5475,44 @@
       <c r="E77" s="22"/>
       <c r="F77" s="20"/>
       <c r="G77" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="7">
         <v>45427</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="78" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <f>MAX($A$5:A77)+1</f>
         <v>74</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="33" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="7">
@@ -5515,7 +5522,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="79" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <f>MAX($A$5:A78)+1</f>
         <v>75</v>
@@ -5526,10 +5533,10 @@
       <c r="E79" s="22"/>
       <c r="F79" s="20"/>
       <c r="G79" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="7">
@@ -5539,7 +5546,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="80" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="28">
         <f>MAX($A$5:A79)+1</f>
         <v>76</v>
@@ -5548,28 +5555,28 @@
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="27" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="7">
         <v>45427</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="28">
         <f>MAX($A$5:A80)+1</f>
         <v>77</v>
@@ -5580,44 +5587,44 @@
       <c r="E81" s="22"/>
       <c r="F81" s="20"/>
       <c r="G81" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="7">
         <v>45427</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="82" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <f>MAX($A$5:A81)+1</f>
         <v>78</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="33" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="7">
@@ -5627,7 +5634,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="83" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <f>MAX($A$5:A82)+1</f>
         <v>79</v>
@@ -5638,10 +5645,10 @@
       <c r="E83" s="22"/>
       <c r="F83" s="20"/>
       <c r="G83" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="7">
@@ -5651,7 +5658,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="84" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <f>MAX($A$5:A83)+1</f>
         <v>80</v>
@@ -5660,16 +5667,16 @@
       <c r="C84" s="34"/>
       <c r="D84" s="21"/>
       <c r="E84" s="27" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="7">
@@ -5679,7 +5686,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <f>MAX($A$5:A84)+1</f>
         <v>81</v>
@@ -5690,10 +5697,10 @@
       <c r="E85" s="22"/>
       <c r="F85" s="20"/>
       <c r="G85" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="7">
@@ -5703,61 +5710,61 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="86" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <f>MAX($A$5:A85)+1</f>
         <v>82</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="7">
         <v>45427</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="3" customFormat="1" ht="39">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A87" s="28">
         <f>MAX($A$5:A86)+1</f>
         <v>83</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="33" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="7">
@@ -5766,10 +5773,10 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="3" customFormat="1" ht="26.1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A88" s="28">
         <f>MAX($A$5:A87)+1</f>
         <v>84</v>
@@ -5780,10 +5787,10 @@
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="7">
@@ -5792,10 +5799,10 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="3" customFormat="1" ht="39">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A89" s="28">
         <f>MAX($A$5:A88)+1</f>
         <v>85</v>
@@ -5806,30 +5813,30 @@
         <v>21</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="7">
         <v>45427</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="3" customFormat="1" ht="12.95">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A90" s="28">
         <f>MAX($A$5:A89)+1</f>
         <v>86</v>
@@ -5840,42 +5847,42 @@
       <c r="E90" s="22"/>
       <c r="F90" s="20"/>
       <c r="G90" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="7">
         <v>45427</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="28">
         <f>MAX($A$5:A90)+1</f>
         <v>87</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="33" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="33" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="7">
@@ -5885,7 +5892,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" s="3" customFormat="1" ht="12.95">
+    <row r="92" spans="1:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <f>MAX($A$5:A91)+1</f>
         <v>88</v>
@@ -5896,10 +5903,10 @@
       <c r="E92" s="22"/>
       <c r="F92" s="20"/>
       <c r="G92" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="7">
@@ -5909,25 +5916,25 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1">
+    <row r="93" spans="1:13" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <f>MAX($A$5:A92)+1</f>
         <v>89</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="33" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="33" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="7">
@@ -5937,7 +5944,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <f>MAX($A$5:A93)+1</f>
         <v>90</v>
@@ -5948,10 +5955,10 @@
       <c r="E94" s="22"/>
       <c r="F94" s="20"/>
       <c r="G94" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="7">
@@ -5961,59 +5968,59 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="95" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="28">
         <f>MAX($A$5:A94)+1</f>
         <v>91</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="7">
         <v>45427</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
     </row>
-    <row r="96" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="96" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
         <f>MAX($A$5:A95)+1</f>
         <v>92</v>
       </c>
       <c r="B96" s="34"/>
       <c r="C96" s="33" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="7"/>
@@ -6021,7 +6028,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
     </row>
-    <row r="97" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="97" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
         <f>MAX($A$5:A96)+1</f>
         <v>93</v>
@@ -6032,10 +6039,10 @@
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="7"/>
@@ -6043,7 +6050,7 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
-    <row r="98" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="98" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
         <f>MAX($A$5:A97)+1</f>
         <v>94</v>
@@ -6054,16 +6061,16 @@
         <v>21</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="7"/>
@@ -6071,7 +6078,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <f>MAX($A$5:A98)+1</f>
         <v>95</v>
@@ -6082,10 +6089,10 @@
       <c r="E99" s="22"/>
       <c r="F99" s="20"/>
       <c r="G99" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="7"/>
@@ -6093,7 +6100,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="1:13" s="3" customFormat="1" ht="39">
+    <row r="100" spans="1:13" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
         <f>MAX($A$5:A99)+1</f>
         <v>96</v>
@@ -6102,16 +6109,16 @@
       <c r="C100" s="34"/>
       <c r="D100" s="21"/>
       <c r="E100" s="33" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="7"/>
@@ -6119,7 +6126,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="101" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
         <f>MAX($A$5:A100)+1</f>
         <v>97</v>
@@ -6130,10 +6137,10 @@
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="7"/>
@@ -6141,25 +6148,25 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="102" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <f>MAX($A$5:A101)+1</f>
         <v>98</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="7"/>
@@ -6167,29 +6174,29 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="103" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="28">
         <f>MAX($A$5:A102)+1</f>
         <v>99</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="7"/>
@@ -6197,7 +6204,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="104" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
         <f>MAX($A$5:A103)+1</f>
         <v>100</v>
@@ -6208,10 +6215,10 @@
       <c r="E104" s="22"/>
       <c r="F104" s="20"/>
       <c r="G104" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="7"/>
@@ -6219,7 +6226,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="105" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <f>MAX($A$5:A104)+1</f>
         <v>101</v>
@@ -6230,16 +6237,16 @@
         <v>21</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="7"/>
@@ -6247,7 +6254,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
     </row>
-    <row r="106" spans="1:13" s="3" customFormat="1" ht="12.95">
+    <row r="106" spans="1:13" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
         <f>MAX($A$5:A105)+1</f>
         <v>102</v>
@@ -6258,10 +6265,10 @@
       <c r="E106" s="22"/>
       <c r="F106" s="20"/>
       <c r="G106" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="7"/>
@@ -6269,7 +6276,7 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
     </row>
-    <row r="107" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1">
+    <row r="107" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
         <f>MAX($A$5:A106)+1</f>
         <v>103</v>
@@ -6278,16 +6285,16 @@
       <c r="C107" s="34"/>
       <c r="D107" s="21"/>
       <c r="E107" s="33" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="7"/>
@@ -6295,7 +6302,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
     </row>
-    <row r="108" spans="1:13" s="3" customFormat="1" ht="26.1">
+    <row r="108" spans="1:13" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <f>MAX($A$5:A107)+1</f>
         <v>104</v>
@@ -6306,10 +6313,10 @@
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="G108" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="7"/>
@@ -6317,7 +6324,7 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
     </row>
-    <row r="109" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
         <f>MAX($A$5:A108)+1</f>
         <v>105</v>
@@ -6335,7 +6342,7 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
     </row>
-    <row r="110" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="28">
         <f>MAX($A$5:A109)+1</f>
         <v>106</v>
@@ -6353,7 +6360,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="28">
         <f>MAX($A$5:A110)+1</f>
         <v>107</v>
@@ -6371,7 +6378,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28">
         <f>MAX($A$5:A111)+1</f>
         <v>108</v>
@@ -6389,7 +6396,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="28">
         <f>MAX($A$5:A112)+1</f>
         <v>109</v>
@@ -6407,7 +6414,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="28">
         <f>MAX($A$5:A113)+1</f>
         <v>110</v>
@@ -6425,7 +6432,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="28">
         <f>MAX($A$5:A114)+1</f>
         <v>111</v>
@@ -6443,7 +6450,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="28">
         <f>MAX($A$5:A115)+1</f>
         <v>112</v>
@@ -6461,7 +6468,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
     </row>
-    <row r="117" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="28">
         <f>MAX($A$5:A116)+1</f>
         <v>113</v>
@@ -6479,7 +6486,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
     </row>
-    <row r="118" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="28">
         <f>MAX($A$5:A117)+1</f>
         <v>114</v>
@@ -6497,7 +6504,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
     </row>
-    <row r="119" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="28">
         <f>MAX($A$5:A118)+1</f>
         <v>115</v>
@@ -6515,7 +6522,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
     </row>
-    <row r="120" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="28">
         <f>MAX($A$5:A119)+1</f>
         <v>116</v>
@@ -6533,7 +6540,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="28">
         <f>MAX($A$5:A120)+1</f>
         <v>117</v>
@@ -6572,64 +6579,64 @@
   </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="0.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" thickTop="1">
-      <c r="A1" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="46" t="s">
+    <row r="1" spans="1:16" ht="14.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="55"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.45" thickBot="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="56"/>
-    </row>
-    <row r="3" spans="1:16" ht="13.5" thickTop="1"/>
-    <row r="4" spans="1:16" ht="5.25" customHeight="1" thickBot="1">
+      <c r="O2" s="42"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:16" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6647,146 +6654,146 @@
       <c r="O4" s="11"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="14.1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" thickTop="1">
+    <row r="6" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="P24" s="14"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="P30" s="14"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="P37" s="14"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -6804,7 +6811,7 @@
       <c r="O39" s="16"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6822,143 +6829,143 @@
       <c r="O40" s="11"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="P41" s="14"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="P57" s="14"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="P60" s="14"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="P63" s="14"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="P65" s="14"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="P71" s="14"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="P73" s="14"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="P74" s="14"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -6976,7 +6983,7 @@
       <c r="O75" s="16"/>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -7012,34 +7019,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="62540ab4-b724-4f57-aa42-279d4e6aff00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2a7c5807-951f-4a9f-9d51-f062aadc2312" xsi:nil="true"/>
-    <SharedWithUsers xmlns="2a7c5807-951f-4a9f-9d51-f062aadc2312">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="62540ab4-b724-4f57-aa42-279d4e6aff00" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006093EFCF0D4C9F4F838DFE48C42D1355" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4a147c735b5d5f51da3499394d6cfe7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62540ab4-b724-4f57-aa42-279d4e6aff00" xmlns:ns3="2a7c5807-951f-4a9f-9d51-f062aadc2312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f90c0f8e6cf681fac2ffd593b4aacb27" ns2:_="" ns3:_="">
     <xsd:import namespace="62540ab4-b724-4f57-aa42-279d4e6aff00"/>
@@ -7274,14 +7253,68 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="62540ab4-b724-4f57-aa42-279d4e6aff00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2a7c5807-951f-4a9f-9d51-f062aadc2312" xsi:nil="true"/>
+    <SharedWithUsers xmlns="2a7c5807-951f-4a9f-9d51-f062aadc2312">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="62540ab4-b724-4f57-aa42-279d4e6aff00" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8775BF-FCD4-4761-95F0-599CE77DEFAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A0452F3-0709-4CBD-97BB-CB774ECEE857}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="62540ab4-b724-4f57-aa42-279d4e6aff00"/>
+    <ds:schemaRef ds:uri="2a7c5807-951f-4a9f-9d51-f062aadc2312"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E212E4-ADE4-43F3-9F44-32B431C26D50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E212E4-ADE4-43F3-9F44-32B431C26D50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A0452F3-0709-4CBD-97BB-CB774ECEE857}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8775BF-FCD4-4761-95F0-599CE77DEFAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="62540ab4-b724-4f57-aa42-279d4e6aff00"/>
+    <ds:schemaRef ds:uri="2a7c5807-951f-4a9f-9d51-f062aadc2312"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>